--- a/medicine/Enfance/Guus_Kuijer/Guus_Kuijer.xlsx
+++ b/medicine/Enfance/Guus_Kuijer/Guus_Kuijer.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Guus Kuijer (prononciation :  [ɣys ˈkœyər]), né le 1er août 1942 à Amsterdam, est un auteur néerlandais de littérature d'enfance et de jeunesse.
 </t>
@@ -511,11 +523,13 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Né à Amsterdam, il va à l'internat du lycée de Zutphen. Il fait ensuite ses études à Doetinchem. Il devient instituteur et travaille de 1967 à 1973 à Didam. 
-Il arrête d'enseigner pour devenir écrivain à plein temps. En 1975, il publie son premier roman pour la jeunesse, Les bonbons sont faits pour être mangés, qui met en scène pour la première fois son personnage de Madelief, une petite fille. La série reçoit deux fois le prix Gouden Griffel. Elle a un tel succès qu'elle devient une série télévisée en 1994[1] et que le film qui adapte le roman La Maison au fond du jardin en 1998 reçoit de nombreux prix internationaux[2].
-Avec Unis pour la vie en 1999, il crée son personnage de Pauline (Polleke), qui revient dans quatre autres romans. Un film, Polleke (2003), reçoit plusieurs prix aux Pays-Bas[3].
+Il arrête d'enseigner pour devenir écrivain à plein temps. En 1975, il publie son premier roman pour la jeunesse, Les bonbons sont faits pour être mangés, qui met en scène pour la première fois son personnage de Madelief, une petite fille. La série reçoit deux fois le prix Gouden Griffel. Elle a un tel succès qu'elle devient une série télévisée en 1994 et que le film qui adapte le roman La Maison au fond du jardin en 1998 reçoit de nombreux prix internationaux.
+Avec Unis pour la vie en 1999, il crée son personnage de Pauline (Polleke), qui revient dans quatre autres romans. Un film, Polleke (2003), reçoit plusieurs prix aux Pays-Bas.
 L'ensemble de son œuvre est couronné en 2012 par le Prix commémoratif Astrid Lindgren.
 </t>
         </is>
@@ -545,7 +559,9 @@
           <t>Œuvres traduites en français</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Les bonbons sont faits pour être mangés (Met de poppen gooien , 1975), Bordas, coll. Aux quatre coins du temps, 1981.
 La Maison au fond du jardin (Krassen in het tafelblad, 1978), Bordas, coll. Aux quatre coins du temps, 1985.
@@ -588,12 +604,14 @@
           <t>Distinctions</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Gouden Griffel 1976
 Gouden Griffel 1979
-Prix Bernard Versele 2007/2008[4]
-Prix commémoratif Astrid Lindgren 2012[5]</t>
+Prix Bernard Versele 2007/2008
+Prix commémoratif Astrid Lindgren 2012</t>
         </is>
       </c>
     </row>
